--- a/HipHop/页面说明.xlsx
+++ b/HipHop/页面说明.xlsx
@@ -19,27 +19,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>personalCenter.html</t>
   </si>
   <si>
-    <t>个人中心模块</t>
-  </si>
-  <si>
     <t>个人中心首页</t>
+  </si>
+  <si>
+    <t>个人中心模块（我的Vyou）</t>
+  </si>
+  <si>
+    <t>accountBalance.html</t>
+  </si>
+  <si>
+    <t>账号余额</t>
+  </si>
+  <si>
+    <t>discountCoupon.html</t>
+  </si>
+  <si>
+    <t>账号优惠券</t>
+  </si>
+  <si>
+    <t>accountPoint.html</t>
+  </si>
+  <si>
+    <t>账号积分</t>
+  </si>
+  <si>
+    <t>accountAppointment.html</t>
+  </si>
+  <si>
+    <t>账号预约</t>
+  </si>
+  <si>
+    <t>foodMall.html</t>
+  </si>
+  <si>
+    <t>Vyou商城</t>
+  </si>
+  <si>
+    <t>食品饮料货架</t>
+  </si>
+  <si>
+    <t>clothesMall.html</t>
+  </si>
+  <si>
+    <t>electroMall.html</t>
+  </si>
+  <si>
+    <t>电子产品货架</t>
+  </si>
+  <si>
+    <t>饰品服饰货架</t>
+  </si>
+  <si>
+    <t>foodGoodsDetail.html</t>
+  </si>
+  <si>
+    <t>食品饮料产品详细</t>
+  </si>
+  <si>
+    <t>饰品服饰产品详细</t>
+  </si>
+  <si>
+    <t>clothesGoodsDetail.html</t>
+  </si>
+  <si>
+    <t>electroGoodsDetail.html</t>
+  </si>
+  <si>
+    <t>电子产品详细</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -63,13 +134,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -351,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,7 +441,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -375,15 +449,136 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A9:XFD9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HipHop/页面说明.xlsx
+++ b/HipHop/页面说明.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>personalCenter.html</t>
   </si>
@@ -91,6 +91,45 @@
   </si>
   <si>
     <t>电子产品详细</t>
+  </si>
+  <si>
+    <t>动态资讯</t>
+  </si>
+  <si>
+    <t>dynamicInfomation.html</t>
+  </si>
+  <si>
+    <t>动态花絮+活动直播</t>
+  </si>
+  <si>
+    <t>课堂花絮</t>
+  </si>
+  <si>
+    <t>classroomActivities.html</t>
+  </si>
+  <si>
+    <t>activities.html</t>
+  </si>
+  <si>
+    <t>活动花絮</t>
+  </si>
+  <si>
+    <t>我的关注</t>
+  </si>
+  <si>
+    <t>myAttention.html</t>
+  </si>
+  <si>
+    <t>关注导师+关注课程</t>
+  </si>
+  <si>
+    <t>teacherInfomation.html</t>
+  </si>
+  <si>
+    <t>关注导师信息</t>
+  </si>
+  <si>
+    <t>classTimeEduContent.html</t>
   </si>
 </sst>
 </file>
@@ -137,13 +176,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,13 +478,13 @@
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -456,7 +495,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -467,7 +506,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -478,7 +517,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -489,7 +528,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -500,17 +539,17 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" t="s">
@@ -521,10 +560,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
@@ -532,10 +571,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
@@ -543,10 +582,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
@@ -554,10 +593,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
@@ -565,20 +604,95 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A9:XFD9"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A24:XFD24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HipHop/页面说明.xlsx
+++ b/HipHop/页面说明.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>personalCenter.html</t>
   </si>
@@ -27,9 +27,6 @@
     <t>个人中心首页</t>
   </si>
   <si>
-    <t>个人中心模块（我的Vyou）</t>
-  </si>
-  <si>
     <t>accountBalance.html</t>
   </si>
   <si>
@@ -126,10 +123,67 @@
     <t>teacherInfomation.html</t>
   </si>
   <si>
-    <t>关注导师信息</t>
-  </si>
-  <si>
     <t>classTimeEduContent.html</t>
+  </si>
+  <si>
+    <t>导师详细信息页</t>
+  </si>
+  <si>
+    <t>课次教学内容</t>
+  </si>
+  <si>
+    <t>派对庆典</t>
+  </si>
+  <si>
+    <t>我的Vyou（个人中心）</t>
+  </si>
+  <si>
+    <t>舞蹈课程</t>
+  </si>
+  <si>
+    <t>partyCelebration.html</t>
+  </si>
+  <si>
+    <t>activityApply.html</t>
+  </si>
+  <si>
+    <t>庆典活动报名</t>
+  </si>
+  <si>
+    <t>placeDetail.html</t>
+  </si>
+  <si>
+    <t>场地详细信息</t>
+  </si>
+  <si>
+    <t>placeAppointment.html</t>
+  </si>
+  <si>
+    <t>场地预约支付</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>首页+课程类型+时间安排</t>
+  </si>
+  <si>
+    <t>courseDetail.html</t>
+  </si>
+  <si>
+    <t>课次详细页</t>
+  </si>
+  <si>
+    <t>oneDayTimetable.html</t>
+  </si>
+  <si>
+    <t>单日课程表</t>
+  </si>
+  <si>
+    <t>hourTimetable.html</t>
+  </si>
+  <si>
+    <t>上课时间课程</t>
   </si>
 </sst>
 </file>
@@ -464,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +534,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,10 +553,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,10 +564,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,10 +575,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,20 +586,18 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,10 +616,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -575,10 +627,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -586,10 +638,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,10 +649,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,15 +660,15 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +687,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
         <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,15 +698,15 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,10 +714,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -676,23 +728,128 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A38:XFD38"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A9:XFD9"/>
     <mergeCell ref="A18:XFD18"/>
     <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A30:XFD30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HipHop/页面说明.xlsx
+++ b/HipHop/页面说明.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="48400" windowHeight="27060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -189,21 +192,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,10 +256,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -238,9 +278,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -298,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -333,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -510,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -518,339 +573,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1">
+      <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="35" spans="1:3" s="4" customFormat="1">
+      <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
         <v>6</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C41" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>3</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A38:XFD38"/>
     <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A9:XFD9"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="A27:XFD27"/>
+    <mergeCell ref="A35:XFD35"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A8:XFD8"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/HipHop/页面说明.xlsx
+++ b/HipHop/页面说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="48400" windowHeight="27060"/>
+    <workbookView xWindow="20" yWindow="260" windowWidth="48400" windowHeight="27060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>personalCenter.html</t>
   </si>
@@ -187,6 +187,10 @@
   </si>
   <si>
     <t>上课时间课程</t>
+  </si>
+  <si>
+    <t>活动发布＋场地预约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -576,7 +580,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -651,6 +655,9 @@
     <row r="9" spans="1:3">
       <c r="A9" s="5">
         <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
